--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,15 +521,20 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Next State</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Hasil Peramalan</t>
         </is>
@@ -596,15 +601,20 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -687,11 +697,16 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -774,15 +789,20 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -865,11 +885,16 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>A4</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -952,11 +977,16 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
         <v>155000</v>
       </c>
     </row>
@@ -1039,11 +1069,16 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>A6</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
         <v>175000</v>
       </c>
     </row>
@@ -1126,15 +1161,20 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>A7</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>A8</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>215000</v>
       </c>
     </row>
@@ -1217,15 +1257,20 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>A8</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>115000</v>
       </c>
     </row>
@@ -1308,11 +1353,16 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>A9</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
         <v>235000</v>
       </c>
     </row>
@@ -1395,15 +1445,20 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>A10</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>A11</t>
         </is>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>275000</v>
       </c>
     </row>
@@ -1486,15 +1541,20 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>A11</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>A7, A15</t>
         </is>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>275000</v>
       </c>
     </row>
@@ -1577,15 +1637,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>A12</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>A12, A13</t>
         </is>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>305000</v>
       </c>
     </row>
@@ -1668,15 +1733,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
           <t>A13</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>A10, A14</t>
         </is>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>295000</v>
       </c>
     </row>
@@ -1759,15 +1829,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
           <t>A14</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>A11, A13, A15, A16</t>
         </is>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>330000</v>
       </c>
     </row>
@@ -1850,15 +1925,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
           <t>A15</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>A12, A14</t>
         </is>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>315000</v>
       </c>
     </row>
@@ -1941,15 +2021,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>A16</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>A15</t>
         </is>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>355000</v>
       </c>
     </row>
@@ -2032,15 +2117,20 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
           <t>A17</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>A15</t>
         </is>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>355000</v>
       </c>
     </row>
@@ -2123,11 +2213,16 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>A18</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="n">
         <v>415000</v>
       </c>
     </row>
@@ -2210,11 +2305,16 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
           <t>A19</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
         <v>435000</v>
       </c>
     </row>
@@ -2297,15 +2397,20 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
           <t>A20</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>A22</t>
         </is>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>495000</v>
       </c>
     </row>
@@ -2388,15 +2493,20 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
           <t>A21</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>A21, A24</t>
         </is>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>505000</v>
       </c>
     </row>
@@ -2479,15 +2589,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
           <t>A22</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>A17, A22, A23</t>
         </is>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>468333</v>
       </c>
     </row>
@@ -2570,15 +2685,20 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
           <t>A23</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>A20, A23</t>
         </is>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>485000</v>
       </c>
     </row>
@@ -2661,15 +2781,20 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
           <t>A24</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>A25</t>
         </is>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>555000</v>
       </c>
     </row>
@@ -2752,15 +2877,20 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
           <t>A25</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>A22</t>
         </is>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>495000</v>
       </c>
     </row>
@@ -2841,9 +2971,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2922,9 +3057,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3003,9 +3143,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3084,9 +3229,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3165,9 +3315,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3246,9 +3401,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
